--- a/output_cycle2017_summary.xlsx
+++ b/output_cycle2017_summary.xlsx
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>155</v>
-      </c>
-      <c r="C2" t="n">
-        <v>75</v>
+        <v>195</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -475,6 +475,456 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>212</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>97</v>
+      </c>
+      <c r="D2" t="n">
+        <v>92</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>87</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>91</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -510,27 +960,27 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -563,472 +1013,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>208</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>210</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>97</v>
-      </c>
-      <c r="E2" t="n">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>96</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>90</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58</v>
-      </c>
-      <c r="E2" t="n">
-        <v>62</v>
-      </c>
-      <c r="F2" t="n">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>31</v>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/output_cycle2017_summary.xlsx
+++ b/output_cycle2017_summary.xlsx
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>195</v>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
+        <v>217</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -507,16 +507,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
         <v>23</v>
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -645,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>212</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
+        <v>207</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -692,13 +692,13 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -745,16 +745,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -801,16 +801,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -854,16 +854,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
-      </c>
-      <c r="C2" t="n">
-        <v>89</v>
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>14</v>
@@ -907,16 +907,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>91</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
+        <v>94</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -966,13 +966,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
         <v>61</v>
       </c>
       <c r="F2" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1013,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>123</v>

--- a/output_cycle2017_summary.xlsx
+++ b/output_cycle2017_summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Completed</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
   <si>
     <t>Assessment</t>
@@ -463,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>217</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
+        <v>225</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -490,16 +493,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -510,10 +513,10 @@
         <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
@@ -540,16 +543,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -557,13 +560,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -604,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -624,31 +627,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>207</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>203</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -672,209 +681,315 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103</v>
+      </c>
+      <c r="E2" t="n">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>97</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90</v>
-      </c>
-      <c r="E2" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>104</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82</v>
-      </c>
-      <c r="E2" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>26</v>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>79</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -890,16 +1005,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -907,122 +1022,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61</v>
-      </c>
-      <c r="E2" t="n">
-        <v>61</v>
-      </c>
-      <c r="F2" t="n">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>33</v>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E2" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
